--- a/teams-and-rosters/CS320-Sp24-102-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp24-102-roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2024\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AABD472-BED0-424F-A6CC-5EF9BA47DB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47290EBC-2AB4-423F-84E3-C4E5F52AE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1343" windowWidth="26355" windowHeight="14857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="667" windowWidth="26355" windowHeight="14858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs320-102-sp24-roster" sheetId="1" r:id="rId1"/>
@@ -794,9 +794,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1176,12 +1176,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
@@ -1207,7 +1207,7 @@
       <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1359,6 +1359,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="150" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>